--- a/biology/Zoologie/Californian_spangled/Californian_spangled.xlsx
+++ b/biology/Zoologie/Californian_spangled/Californian_spangled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Californian Spangled est une race de chat originaire des États-Unis. Ce chat en voie de disparition est caractérisé par sa robe spotted tabby faisant penser à celle du léopard.
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Casey, un scénariste américain créa la race dans le courant de 1970. Il rentrait juste d'un voyage en Afrique et voulut un chat ressemblant à un petit léopard. Il pensait également que les gens renonceraient à porter des vêtements de fourrure ne voulant pas avoir sur le dos la peau de leur propre animal.
 Pour cela il croisa de nombreuses races de chats dont des Abyssins, Siamois, American shorthair, British shorthair ainsi que des chats errants égyptiens et asiatiques. Il fallut 11 générations pour obtenir le modèle voulu et c'est donc en 1986 que la race fut réellement lancée.
@@ -545,7 +559,9 @@
           <t>Standard</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ressemble à première vue à un petit léopard. C'est un chat longiligne, bien musclé. Une absence de tonicité musculaire est éliminatoire en championnat. Les pattes sont d'une longueur moyenne avec des muscles puissants et une ossature bien présente. Au bout, les pieds sont grands et ronds avec des doigts proéminents. La queue est longue et d'une épaisseur égale de la base à son extrémité.
 Sa tête est de taille moyenne, arrondie, avec un front légèrement bombé et le stop du nez très légèrement marqué. Les pommettes sont saillantes et la mâchoire ainsi que le museau bien développés. Le museau est bien développé avec un menton charnu. Les yeux sont de taille moyenne à grande et en forme d'amande. Ils doivent être bien ouverts et placés en oblique. Toutes les couleurs sont autorisées à condition qu'elle soit accordée à celle de la robe. Les oreilles sont de taille moyenne mais plutôt courtes. Le bout est arrondi et la base large.
@@ -580,7 +596,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le california spangled serait un chat vif, énergique mais très affectueux. Il serait de plus un bon chasseur mais en s'adaptant quand même à la vie en appartement. On dit également qu'il aime voir tout ce qui se passe et partager sa vie avec ses propriétaires avec qui il adore jouer. Ces traits de caractère restent toutefois parfaitement individuels et sont fonction de l'histoire de chaque chat.
 </t>
